--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full/ifoCAst_error_tables_full_first_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full/ifoCAst_error_tables_full_first_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2764143215047259</v>
+        <v>0.2704831801860494</v>
       </c>
       <c r="C3">
-        <v>1.213143550187014</v>
+        <v>1.168517949126625</v>
       </c>
       <c r="D3">
-        <v>3.727426862733064</v>
+        <v>3.573224508574976</v>
       </c>
       <c r="E3">
-        <v>1.930654516668651</v>
+        <v>1.890297465632057</v>
       </c>
       <c r="F3">
-        <v>1.917725679317946</v>
+        <v>1.877375648438149</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2798510004179126</v>
+        <v>0.3000337968429742</v>
       </c>
       <c r="C4">
-        <v>1.426208762148458</v>
+        <v>1.380885400760346</v>
       </c>
       <c r="D4">
-        <v>8.511479840055609</v>
+        <v>8.048481127830012</v>
       </c>
       <c r="E4">
-        <v>2.917444059456086</v>
+        <v>2.836984513145959</v>
       </c>
       <c r="F4">
-        <v>2.92624404840315</v>
+        <v>2.841443446715117</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
